--- a/biology/Botanique/Orixa_japonica/Orixa_japonica.xlsx
+++ b/biology/Botanique/Orixa_japonica/Orixa_japonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orixa japonica est une espèce de plantes dicotylédones de la famille des  Rutaceae, sous-famille des  Toddalioideae (en), originaire d'Extrême-Orient.
 Orixa japonica est un arbuste à feuilles caduques pouvant atteindre trois mètres de haut, au port étalé, devenant plus large que haut à maturité  grâce à ses racines adventives qui permettent une croissance en largeur. Les feuilles alternes, simples, obovales, légèrement festonnées et glabres, ont une couleur verte luxuriante virant au jaune à l'automne.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon  The Plant List            (2 août 2019)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon  The Plant List            (2 août 2019) :
 Euodia ramiflora A. Gray
 Ilex orixa (Lam.) Spreng.
 Orixa racemosa Z.M. Tan
@@ -550,9 +567,11 @@
           <t>Phyllotaxie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phyllotaxie d'Orixa japonica est très particulière : l'angle de divergence entre feuilles successives forme une suite périodique, il vaut successivement 180°, 90°, 180°, 270° puis de nouveau 180°, 90°, etc.[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phyllotaxie d'Orixa japonica est très particulière : l'angle de divergence entre feuilles successives forme une suite périodique, il vaut successivement 180°, 90°, 180°, 270° puis de nouveau 180°, 90°, etc.,.
 </t>
         </is>
       </c>
